--- a/Oro_Loma_CellF.xlsx
+++ b/Oro_Loma_CellF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A867A87E-2CF3-4639-8AC8-52B73B4581BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C07F1C-E8C1-4A5C-B7C0-03B53ED207A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1125,7 @@
         <v>0.31000000000000005</v>
       </c>
       <c r="H3">
+        <f>1-H2</f>
         <v>0.65</v>
       </c>
       <c r="I3">
